--- a/excel/pr5_1.xlsx
+++ b/excel/pr5_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/PycharmProjects/BSHD/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B533B0ED-B806-4B92-A0CD-2260257D4581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D3C6E7-BDB3-8647-98CF-835E424FBF4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D1120AEB-2FC7-47A1-9D45-93B66FBFDB3B}"/>
+    <workbookView xWindow="15440" yWindow="460" windowWidth="22960" windowHeight="20640" xr2:uid="{D1120AEB-2FC7-47A1-9D45-93B66FBFDB3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,9 +55,6 @@
     <t>Схема соединения</t>
   </si>
   <si>
-    <t>звезда-звезда</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -117,9 +112,6 @@
   </si>
   <si>
     <t>Тип линии</t>
-  </si>
-  <si>
-    <t>воздуш линия</t>
   </si>
   <si>
     <r>
@@ -186,9 +178,6 @@
     <t>Материал провода</t>
   </si>
   <si>
-    <t>медь</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -274,6 +263,15 @@
   </si>
   <si>
     <t>Iкэф&gt;Iкз</t>
+  </si>
+  <si>
+    <t>треугольник-звезда</t>
+  </si>
+  <si>
+    <t>кабельная линия</t>
+  </si>
+  <si>
+    <t>алюминий</t>
   </si>
 </sst>
 </file>
@@ -523,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,9 +537,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -579,7 +577,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -685,7 +683,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -837,18 +835,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D4DD4B-62C7-4919-B651-86B479FEAE52}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -858,230 +856,230 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1">
         <v>22.54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1">
         <v>-0.1176</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>950</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="K2" s="5">
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>220</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
-        <v>380</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="K3" s="5">
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1">
-        <f>POWER(10,-8)*1.75</f>
-        <v>1.7500000000000001E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f>POWER(10,-8)*2.81</f>
+        <v>2.81E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="9">
         <f>B1/3</f>
-        <v>7.333333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106.66666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="11">
         <f>POWER(10,3)*B6/B3</f>
-        <v>19.298245614035086</v>
+        <v>484.84848484848487</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <f>POWER(B3/230,2)</f>
-        <v>2.7296786389413987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.91493383742911161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11">
         <f>I2*B7</f>
-        <v>27.01754385964912</v>
+        <v>606.06060606060612</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <f>POWER(B11+B12,2)</f>
-        <v>15.028397601368807</v>
+        <v>2.8443729000972653E-4</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <f>POWER(K2+K3+B14,2)</f>
-        <v>0.16842815999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.3830961000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="11">
         <f>B7/B4</f>
-        <v>12.86549707602339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>484.84848484848487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11">
         <f>B9/2</f>
-        <v>6.4327485380116949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>242.42424242424244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="11">
         <f>POWER(10,6)*I4*B2/B9</f>
-        <v>1.2922159090909093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.6217562499999993E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="11">
         <f>POWER(10,6)*I4*B2/B10</f>
-        <v>2.5844318181818187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.1243512499999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" s="11">
         <f>I1*E7/(B1+K1)</f>
-        <v>2.8117097083381677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.4469344658074884E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="11">
         <f>POWER(10,-3)*I3*B2</f>
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.7900000000000009E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="11">
         <f>SQRT(E8+G8)</f>
-        <v>3.8983106291531984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.0835442816378603E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="14">
         <f>B3/(B13/3+B15)</f>
-        <v>78.584694636023229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3529.8709668051847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="16" t="str">
         <f>IF(B16&gt;B8,"расчет окончен","ошибка")</f>
